--- a/tables/crosstab/crosstab_age/crosstab_app_age/Age VS revealed,_chisq.xlsx
+++ b/tables/crosstab/crosstab_age/crosstab_app_age/Age VS revealed,_chisq.xlsx
@@ -22,7 +22,7 @@
     <t>results</t>
   </si>
   <si>
-    <t xml:space="preserve">Pearson Chi-square ( 6.0) = </t>
+    <t xml:space="preserve">Pearson Chi-square ( 4.0) = </t>
   </si>
   <si>
     <t xml:space="preserve">p-value = </t>
@@ -408,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>15.2958</v>
+        <v>12.718</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.0181</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.1371</v>
+        <v>0.1261</v>
       </c>
     </row>
   </sheetData>
